--- a/forecast_summary_B09J64TBJG.xlsx
+++ b/forecast_summary_B09J64TBJG.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>0.04864096398824289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.245393642384678</v>
+        <v>0.2360849725377918</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>0.03999847138931999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2554952783677088</v>
+        <v>0.2348371173626926</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>-0.05670634337424752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1492129809258596</v>
+        <v>0.1267870509801945</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>-0.1039796331092423</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0921870800053028</v>
+        <v>0.09100691828082617</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>-0.020461202892258</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1796810471865596</v>
+        <v>0.1775798033314379</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>0.08032950065424796</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2567673644523937</v>
+        <v>0.2857259763224951</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>0.04279931895618288</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2345628737484078</v>
+        <v>0.235081873568946</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-0.08138658592882578</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1205824449000135</v>
+        <v>0.1182066627097647</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-0.06876954465043857</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1291161956056848</v>
+        <v>0.1279748254435556</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>0.1464626878278733</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3457987892101269</v>
+        <v>0.3440852601956484</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>0.2971645502461109</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5156792764000266</v>
+        <v>0.4829848346820885</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>0.07751255416764238</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2740161874472123</v>
+        <v>0.2680863776394917</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-0.4114134926481777</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2116138017547872</v>
+        <v>-0.2229153014526361</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-0.6786354078006622</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4899098218914055</v>
+        <v>-0.4905984804003261</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-0.4040728679676461</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2068516633028457</v>
+        <v>-0.2212679844623306</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>0.1220213464900648</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3216576073695404</v>
+        <v>0.3133294734303605</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>0.2929877051352522</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4837413150254761</v>
+        <v>0.4860794969648928</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-0.07594403533334712</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1052792433669505</v>
+        <v>0.1226209627824292</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-0.4870200271028481</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2899179953771746</v>
+        <v>-0.3073810152312524</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-0.3691386668784025</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1749356524153411</v>
+        <v>-0.1791662401579899</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z690 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
